--- a/Lab1_Sorts/reports/Analysis.xlsx
+++ b/Lab1_Sorts/reports/Analysis.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Time Sum</t>
   </si>
 </sst>
 </file>
@@ -108,30 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -147,6 +129,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -447,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -540,2264 +545,2529 @@
       <c r="D8"/>
       <c r="F8"/>
       <c r="H8"/>
-      <c r="I8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8"/>
+      <c r="I8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7"/>
       <c r="L8"/>
       <c r="N8"/>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="2">
+      <c r="A9" s="8">
         <v>10</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10">
         <v>50</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3">
+      <c r="D9" s="9"/>
+      <c r="E9" s="10">
         <v>100</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3">
+      <c r="F9" s="9"/>
+      <c r="G9" s="10">
         <v>500</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3">
+      <c r="H9" s="9"/>
+      <c r="I9" s="10">
         <v>1000</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3">
+      <c r="J9" s="9"/>
+      <c r="K9" s="10">
         <v>5000</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="6">
+      <c r="L9" s="9"/>
+      <c r="M9" s="11">
         <v>10000</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="6">
+      <c r="N9" s="12"/>
+      <c r="O9" s="11">
         <v>50000</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="6">
+      <c r="P9" s="12"/>
+      <c r="Q9" s="11">
         <v>100000</v>
       </c>
-      <c r="R9" s="5"/>
+      <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="12">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="13">
-        <v>1</v>
-      </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="12">
-        <v>1</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="13">
-        <v>1</v>
-      </c>
-      <c r="R10" s="9"/>
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="10">
-        <v>2</v>
-      </c>
-      <c r="B11" s="10">
-        <v>0</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>2</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>2</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="13">
-        <v>2</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="12">
-        <v>2</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="13">
-        <v>2</v>
-      </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="12">
-        <v>2</v>
-      </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="13">
-        <v>2</v>
-      </c>
-      <c r="R11" s="9"/>
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="6">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="5">
+        <v>2</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="6">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="10">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="10">
-        <v>0</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>3</v>
       </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <v>3</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="13">
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
         <v>3</v>
       </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="12">
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5">
         <v>3</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="13">
+      <c r="L12" s="4"/>
+      <c r="M12" s="6">
         <v>3</v>
       </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="12">
+      <c r="N12" s="3"/>
+      <c r="O12" s="5">
         <v>3</v>
       </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="13">
+      <c r="P12" s="4"/>
+      <c r="Q12" s="6">
         <v>3</v>
       </c>
-      <c r="R12" s="9"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="10">
+      <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="10">
-        <v>0</v>
-      </c>
-      <c r="C13" s="12">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
         <v>4</v>
       </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
         <v>4</v>
       </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <v>4</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="13">
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
         <v>4</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="12">
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13" s="5">
         <v>4</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="13">
+      <c r="L13" s="4"/>
+      <c r="M13" s="6">
         <v>4</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="12">
+      <c r="N13" s="3"/>
+      <c r="O13" s="5">
         <v>4</v>
       </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="13">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="6">
         <v>4</v>
       </c>
-      <c r="R13" s="9"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="10">
+      <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="10">
-        <v>0</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
         <v>5</v>
       </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
         <v>5</v>
       </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
         <v>5</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="13">
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
         <v>5</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="12">
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="5">
         <v>5</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="13">
+      <c r="L14" s="4"/>
+      <c r="M14" s="6">
         <v>5</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="12">
+      <c r="N14" s="3"/>
+      <c r="O14" s="5">
         <v>5</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="13">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="6">
         <v>5</v>
       </c>
-      <c r="R14" s="9"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="10">
+      <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
         <v>6</v>
       </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
         <v>6</v>
       </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
         <v>6</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="13">
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
         <v>6</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="12">
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="5">
         <v>6</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="13">
+      <c r="L15" s="4"/>
+      <c r="M15" s="6">
         <v>6</v>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="12">
+      <c r="N15" s="3"/>
+      <c r="O15" s="5">
         <v>6</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="13">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="6">
         <v>6</v>
       </c>
-      <c r="R15" s="9"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="10">
+      <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="10">
-        <v>0</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
         <v>7</v>
       </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="13">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
         <v>7</v>
       </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
         <v>7</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="13">
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
         <v>7</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="12">
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="5">
         <v>7</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="13">
+      <c r="L16" s="4"/>
+      <c r="M16" s="6">
         <v>7</v>
       </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="12">
+      <c r="N16" s="3"/>
+      <c r="O16" s="5">
         <v>7</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="13">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="6">
         <v>7</v>
       </c>
-      <c r="R16" s="9"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="10">
+      <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="10">
-        <v>0</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
         <v>8</v>
       </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="13">
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
         <v>8</v>
       </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
         <v>8</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="13">
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
         <v>8</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="12">
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="5">
         <v>8</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="13">
+      <c r="L17" s="4"/>
+      <c r="M17" s="6">
         <v>8</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="12">
+      <c r="N17" s="3"/>
+      <c r="O17" s="5">
         <v>8</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="13">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="6">
         <v>8</v>
       </c>
-      <c r="R17" s="9"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="10">
+      <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="10">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
         <v>9</v>
       </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="13">
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
         <v>9</v>
       </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
         <v>9</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="13">
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
         <v>9</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="12">
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="5">
         <v>9</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="13">
+      <c r="L18" s="4"/>
+      <c r="M18" s="6">
         <v>9</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="12">
+      <c r="N18" s="3"/>
+      <c r="O18" s="5">
         <v>9</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="13">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="6">
         <v>9</v>
       </c>
-      <c r="R18" s="9"/>
+      <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="10">
+      <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="10">
-        <v>0</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
         <v>10</v>
       </c>
-      <c r="D19" s="11">
-        <v>0</v>
-      </c>
-      <c r="E19" s="13">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
         <v>10</v>
       </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
         <v>10</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="13">
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
         <v>10</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="12">
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="5">
         <v>10</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="13">
+      <c r="L19" s="4"/>
+      <c r="M19" s="6">
         <v>10</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="12">
+      <c r="N19" s="3"/>
+      <c r="O19" s="5">
         <v>10</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="13">
+      <c r="P19" s="4"/>
+      <c r="Q19" s="6">
         <v>10</v>
       </c>
-      <c r="R19" s="9"/>
+      <c r="R19" s="2"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="10">
+      <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="10">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
         <v>11</v>
       </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
         <v>11</v>
       </c>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
         <v>11</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="13">
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
         <v>11</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="12">
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="5">
         <v>11</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="13">
+      <c r="L20" s="4"/>
+      <c r="M20" s="6">
         <v>11</v>
       </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="12">
+      <c r="N20" s="3"/>
+      <c r="O20" s="5">
         <v>11</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="13">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="6">
         <v>11</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="R20" s="2"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="10">
+      <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="10">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
         <v>12</v>
       </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12">
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
         <v>12</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="13">
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
         <v>12</v>
       </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="12">
+      <c r="J21" s="3">
+        <v>2</v>
+      </c>
+      <c r="K21" s="5">
         <v>12</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="13">
+      <c r="L21" s="4"/>
+      <c r="M21" s="6">
         <v>12</v>
       </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="12">
+      <c r="N21" s="3"/>
+      <c r="O21" s="5">
         <v>12</v>
       </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="13">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="6">
         <v>12</v>
       </c>
-      <c r="R21" s="9"/>
+      <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="10">
+      <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="10">
-        <v>0</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
         <v>13</v>
       </c>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
-      <c r="E22" s="13">
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
         <v>13</v>
       </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
         <v>13</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="13">
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
         <v>13</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="12">
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="5">
         <v>13</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="13">
+      <c r="L22" s="4"/>
+      <c r="M22" s="6">
         <v>13</v>
       </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="12">
+      <c r="N22" s="3"/>
+      <c r="O22" s="5">
         <v>13</v>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="13">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="6">
         <v>13</v>
       </c>
-      <c r="R22" s="9"/>
+      <c r="R22" s="2"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="10">
+      <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="10">
-        <v>0</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
         <v>14</v>
       </c>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
-      <c r="E23" s="13">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
         <v>14</v>
       </c>
-      <c r="F23" s="10">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12">
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
         <v>14</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="13">
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
         <v>14</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="12">
+      <c r="J23" s="3">
+        <v>2</v>
+      </c>
+      <c r="K23" s="5">
         <v>14</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="13">
+      <c r="L23" s="4"/>
+      <c r="M23" s="6">
         <v>14</v>
       </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="12">
+      <c r="N23" s="3"/>
+      <c r="O23" s="5">
         <v>14</v>
       </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="13">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="6">
         <v>14</v>
       </c>
-      <c r="R23" s="9"/>
+      <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="10">
+      <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="10">
-        <v>0</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
         <v>15</v>
       </c>
-      <c r="D24" s="11">
-        <v>0</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
         <v>15</v>
       </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="12">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
         <v>15</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="13">
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
         <v>15</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="12">
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="5">
         <v>15</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="13">
+      <c r="L24" s="4"/>
+      <c r="M24" s="6">
         <v>15</v>
       </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="12">
+      <c r="N24" s="3"/>
+      <c r="O24" s="5">
         <v>15</v>
       </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="13">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="6">
         <v>15</v>
       </c>
-      <c r="R24" s="9"/>
+      <c r="R24" s="2"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="10">
+      <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="10">
-        <v>0</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
         <v>16</v>
       </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="13">
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
         <v>16</v>
       </c>
-      <c r="F25" s="10">
-        <v>0</v>
-      </c>
-      <c r="G25" s="12">
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
         <v>16</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="13">
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
         <v>16</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="12">
+      <c r="J25" s="3">
+        <v>3</v>
+      </c>
+      <c r="K25" s="5">
         <v>16</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="13">
+      <c r="L25" s="4"/>
+      <c r="M25" s="6">
         <v>16</v>
       </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="12">
+      <c r="N25" s="3"/>
+      <c r="O25" s="5">
         <v>16</v>
       </c>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="13">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="6">
         <v>16</v>
       </c>
-      <c r="R25" s="9"/>
+      <c r="R25" s="2"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="10">
+      <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="10">
-        <v>0</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
         <v>17</v>
       </c>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
         <v>17</v>
       </c>
-      <c r="F26" s="10">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12">
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
         <v>17</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="13">
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
         <v>17</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="12">
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="5">
         <v>17</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="13">
+      <c r="L26" s="4"/>
+      <c r="M26" s="6">
         <v>17</v>
       </c>
-      <c r="N26" s="10"/>
-      <c r="O26" s="12">
+      <c r="N26" s="3"/>
+      <c r="O26" s="5">
         <v>17</v>
       </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="13">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="6">
         <v>17</v>
       </c>
-      <c r="R26" s="9"/>
+      <c r="R26" s="2"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="10">
+      <c r="A27" s="3">
         <v>18</v>
       </c>
-      <c r="B27" s="10">
-        <v>0</v>
-      </c>
-      <c r="C27" s="12">
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
         <v>18</v>
       </c>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-      <c r="E27" s="13">
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
         <v>18</v>
       </c>
-      <c r="F27" s="10">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
         <v>18</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="13">
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
         <v>18</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="12">
+      <c r="J27" s="3">
+        <v>2</v>
+      </c>
+      <c r="K27" s="5">
         <v>18</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="13">
+      <c r="L27" s="4"/>
+      <c r="M27" s="6">
         <v>18</v>
       </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="12">
+      <c r="N27" s="3"/>
+      <c r="O27" s="5">
         <v>18</v>
       </c>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="13">
+      <c r="P27" s="4"/>
+      <c r="Q27" s="6">
         <v>18</v>
       </c>
-      <c r="R27" s="9"/>
+      <c r="R27" s="2"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="10">
+      <c r="A28" s="3">
         <v>19</v>
       </c>
-      <c r="B28" s="10">
-        <v>0</v>
-      </c>
-      <c r="C28" s="12">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
         <v>19</v>
       </c>
-      <c r="D28" s="11">
-        <v>0</v>
-      </c>
-      <c r="E28" s="13">
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
         <v>19</v>
       </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12">
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
         <v>19</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="13">
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6">
         <v>19</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="12">
+      <c r="J28" s="3">
+        <v>2</v>
+      </c>
+      <c r="K28" s="5">
         <v>19</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="13">
+      <c r="L28" s="4"/>
+      <c r="M28" s="6">
         <v>19</v>
       </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="12">
+      <c r="N28" s="3"/>
+      <c r="O28" s="5">
         <v>19</v>
       </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="13">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="6">
         <v>19</v>
       </c>
-      <c r="R28" s="9"/>
+      <c r="R28" s="2"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="10">
+      <c r="A29" s="3">
         <v>20</v>
       </c>
-      <c r="B29" s="10">
-        <v>0</v>
-      </c>
-      <c r="C29" s="12">
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
         <v>20</v>
       </c>
-      <c r="D29" s="11">
-        <v>0</v>
-      </c>
-      <c r="E29" s="13">
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
         <v>20</v>
       </c>
-      <c r="F29" s="10">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
         <v>20</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="13">
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="6">
         <v>20</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="12">
+      <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="5">
         <v>20</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="13">
+      <c r="L29" s="4"/>
+      <c r="M29" s="6">
         <v>20</v>
       </c>
-      <c r="N29" s="10"/>
-      <c r="O29" s="12">
+      <c r="N29" s="3"/>
+      <c r="O29" s="5">
         <v>20</v>
       </c>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="13">
+      <c r="P29" s="4"/>
+      <c r="Q29" s="6">
         <v>20</v>
       </c>
-      <c r="R29" s="9"/>
+      <c r="R29" s="2"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="10">
+      <c r="A30" s="3">
         <v>21</v>
       </c>
-      <c r="B30" s="10">
-        <v>0</v>
-      </c>
-      <c r="C30" s="12">
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
         <v>21</v>
       </c>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="13">
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
         <v>21</v>
       </c>
-      <c r="F30" s="10">
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
         <v>21</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="13">
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6">
         <v>21</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="12">
+      <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="5">
         <v>21</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="13">
+      <c r="L30" s="4"/>
+      <c r="M30" s="6">
         <v>21</v>
       </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="12">
+      <c r="N30" s="3"/>
+      <c r="O30" s="5">
         <v>21</v>
       </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="13">
+      <c r="P30" s="4"/>
+      <c r="Q30" s="6">
         <v>21</v>
       </c>
-      <c r="R30" s="9"/>
+      <c r="R30" s="2"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="10">
+      <c r="A31" s="3">
         <v>22</v>
       </c>
-      <c r="B31" s="10">
-        <v>0</v>
-      </c>
-      <c r="C31" s="12">
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
         <v>22</v>
       </c>
-      <c r="D31" s="11">
-        <v>0</v>
-      </c>
-      <c r="E31" s="13">
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
         <v>22</v>
       </c>
-      <c r="F31" s="10">
-        <v>0</v>
-      </c>
-      <c r="G31" s="12">
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
         <v>22</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="13">
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6">
         <v>22</v>
       </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="12">
+      <c r="J31" s="3">
+        <v>2</v>
+      </c>
+      <c r="K31" s="5">
         <v>22</v>
       </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="13">
+      <c r="L31" s="4"/>
+      <c r="M31" s="6">
         <v>22</v>
       </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="12">
+      <c r="N31" s="3"/>
+      <c r="O31" s="5">
         <v>22</v>
       </c>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="13">
+      <c r="P31" s="4"/>
+      <c r="Q31" s="6">
         <v>22</v>
       </c>
-      <c r="R31" s="9"/>
+      <c r="R31" s="2"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="10">
+      <c r="A32" s="3">
         <v>23</v>
       </c>
-      <c r="B32" s="10">
-        <v>0</v>
-      </c>
-      <c r="C32" s="12">
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
         <v>23</v>
       </c>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
-      <c r="E32" s="13">
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
         <v>23</v>
       </c>
-      <c r="F32" s="10">
-        <v>0</v>
-      </c>
-      <c r="G32" s="12">
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
         <v>23</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="13">
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6">
         <v>23</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="12">
+      <c r="J32" s="3">
+        <v>2</v>
+      </c>
+      <c r="K32" s="5">
         <v>23</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="13">
+      <c r="L32" s="4"/>
+      <c r="M32" s="6">
         <v>23</v>
       </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="12">
+      <c r="N32" s="3"/>
+      <c r="O32" s="5">
         <v>23</v>
       </c>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="13">
+      <c r="P32" s="4"/>
+      <c r="Q32" s="6">
         <v>23</v>
       </c>
-      <c r="R32" s="9"/>
+      <c r="R32" s="2"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="10">
+      <c r="A33" s="3">
         <v>24</v>
       </c>
-      <c r="B33" s="10">
-        <v>0</v>
-      </c>
-      <c r="C33" s="12">
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
         <v>24</v>
       </c>
-      <c r="D33" s="11">
-        <v>0</v>
-      </c>
-      <c r="E33" s="13">
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
         <v>24</v>
       </c>
-      <c r="F33" s="10">
-        <v>0</v>
-      </c>
-      <c r="G33" s="12">
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
         <v>24</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="13">
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
         <v>24</v>
       </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="12">
+      <c r="J33" s="3">
+        <v>3</v>
+      </c>
+      <c r="K33" s="5">
         <v>24</v>
       </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="13">
+      <c r="L33" s="4"/>
+      <c r="M33" s="6">
         <v>24</v>
       </c>
-      <c r="N33" s="10"/>
-      <c r="O33" s="12">
+      <c r="N33" s="3"/>
+      <c r="O33" s="5">
         <v>24</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="13">
+      <c r="P33" s="4"/>
+      <c r="Q33" s="6">
         <v>24</v>
       </c>
-      <c r="R33" s="9"/>
+      <c r="R33" s="2"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="10">
+      <c r="A34" s="3">
         <v>25</v>
       </c>
-      <c r="B34" s="10">
-        <v>0</v>
-      </c>
-      <c r="C34" s="12">
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
         <v>25</v>
       </c>
-      <c r="D34" s="11">
-        <v>0</v>
-      </c>
-      <c r="E34" s="13">
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
         <v>25</v>
       </c>
-      <c r="F34" s="10">
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
         <v>25</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="13">
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6">
         <v>25</v>
       </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="12">
+      <c r="J34" s="3">
+        <v>2</v>
+      </c>
+      <c r="K34" s="5">
         <v>25</v>
       </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="13">
+      <c r="L34" s="4"/>
+      <c r="M34" s="6">
         <v>25</v>
       </c>
-      <c r="N34" s="10"/>
-      <c r="O34" s="12">
+      <c r="N34" s="3"/>
+      <c r="O34" s="5">
         <v>25</v>
       </c>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="13">
+      <c r="P34" s="4"/>
+      <c r="Q34" s="6">
         <v>25</v>
       </c>
-      <c r="R34" s="9"/>
+      <c r="R34" s="2"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="10">
+      <c r="A35" s="3">
         <v>26</v>
       </c>
-      <c r="B35" s="10">
-        <v>0</v>
-      </c>
-      <c r="C35" s="12">
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
         <v>26</v>
       </c>
-      <c r="D35" s="11">
-        <v>0</v>
-      </c>
-      <c r="E35" s="13">
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
         <v>26</v>
       </c>
-      <c r="F35" s="10">
-        <v>0</v>
-      </c>
-      <c r="G35" s="12">
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
         <v>26</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="13">
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6">
         <v>26</v>
       </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="12">
+      <c r="J35" s="3">
+        <v>3</v>
+      </c>
+      <c r="K35" s="5">
         <v>26</v>
       </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="13">
+      <c r="L35" s="4"/>
+      <c r="M35" s="6">
         <v>26</v>
       </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="12">
+      <c r="N35" s="3"/>
+      <c r="O35" s="5">
         <v>26</v>
       </c>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="13">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="6">
         <v>26</v>
       </c>
-      <c r="R35" s="9"/>
+      <c r="R35" s="2"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="10">
+      <c r="A36" s="3">
         <v>27</v>
       </c>
-      <c r="B36" s="10">
-        <v>0</v>
-      </c>
-      <c r="C36" s="12">
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
         <v>27</v>
       </c>
-      <c r="D36" s="11">
-        <v>0</v>
-      </c>
-      <c r="E36" s="13">
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
         <v>27</v>
       </c>
-      <c r="F36" s="10">
-        <v>0</v>
-      </c>
-      <c r="G36" s="12">
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
         <v>27</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="13">
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6">
         <v>27</v>
       </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="12">
+      <c r="J36" s="3">
+        <v>2</v>
+      </c>
+      <c r="K36" s="5">
         <v>27</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="13">
+      <c r="L36" s="4"/>
+      <c r="M36" s="6">
         <v>27</v>
       </c>
-      <c r="N36" s="10"/>
-      <c r="O36" s="12">
+      <c r="N36" s="3"/>
+      <c r="O36" s="5">
         <v>27</v>
       </c>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="13">
+      <c r="P36" s="4"/>
+      <c r="Q36" s="6">
         <v>27</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="2"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="10">
+      <c r="A37" s="3">
         <v>28</v>
       </c>
-      <c r="B37" s="10">
-        <v>0</v>
-      </c>
-      <c r="C37" s="12">
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
         <v>28</v>
       </c>
-      <c r="D37" s="11">
-        <v>0</v>
-      </c>
-      <c r="E37" s="13">
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
         <v>28</v>
       </c>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-      <c r="G37" s="12">
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
         <v>28</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="13">
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
         <v>28</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="12">
+      <c r="J37" s="3">
+        <v>3</v>
+      </c>
+      <c r="K37" s="5">
         <v>28</v>
       </c>
-      <c r="L37" s="11"/>
-      <c r="M37" s="13">
+      <c r="L37" s="4"/>
+      <c r="M37" s="6">
         <v>28</v>
       </c>
-      <c r="N37" s="10"/>
-      <c r="O37" s="12">
+      <c r="N37" s="3"/>
+      <c r="O37" s="5">
         <v>28</v>
       </c>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="13">
+      <c r="P37" s="4"/>
+      <c r="Q37" s="6">
         <v>28</v>
       </c>
-      <c r="R37" s="9"/>
+      <c r="R37" s="2"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="10">
+      <c r="A38" s="3">
         <v>29</v>
       </c>
-      <c r="B38" s="10">
-        <v>0</v>
-      </c>
-      <c r="C38" s="12">
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
         <v>29</v>
       </c>
-      <c r="D38" s="11">
-        <v>0</v>
-      </c>
-      <c r="E38" s="13">
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
         <v>29</v>
       </c>
-      <c r="F38" s="10">
-        <v>0</v>
-      </c>
-      <c r="G38" s="12">
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
         <v>29</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="13">
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6">
         <v>29</v>
       </c>
-      <c r="J38" s="10"/>
-      <c r="K38" s="12">
+      <c r="J38" s="3">
+        <v>2</v>
+      </c>
+      <c r="K38" s="5">
         <v>29</v>
       </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="13">
+      <c r="L38" s="4"/>
+      <c r="M38" s="6">
         <v>29</v>
       </c>
-      <c r="N38" s="10"/>
-      <c r="O38" s="12">
+      <c r="N38" s="3"/>
+      <c r="O38" s="5">
         <v>29</v>
       </c>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="13">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="6">
         <v>29</v>
       </c>
-      <c r="R38" s="9"/>
+      <c r="R38" s="2"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="10">
+      <c r="A39" s="3">
         <v>30</v>
       </c>
-      <c r="B39" s="10">
-        <v>0</v>
-      </c>
-      <c r="C39" s="12">
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
         <v>30</v>
       </c>
-      <c r="D39" s="11">
-        <v>0</v>
-      </c>
-      <c r="E39" s="13">
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
         <v>30</v>
       </c>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-      <c r="G39" s="12">
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
         <v>30</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="13">
+      <c r="H39" s="4">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
         <v>30</v>
       </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="12">
+      <c r="J39" s="3">
+        <v>2</v>
+      </c>
+      <c r="K39" s="5">
         <v>30</v>
       </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="13">
+      <c r="L39" s="4"/>
+      <c r="M39" s="6">
         <v>30</v>
       </c>
-      <c r="N39" s="10"/>
-      <c r="O39" s="12">
+      <c r="N39" s="3"/>
+      <c r="O39" s="5">
         <v>30</v>
       </c>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="13">
+      <c r="P39" s="4"/>
+      <c r="Q39" s="6">
         <v>30</v>
       </c>
-      <c r="R39" s="9"/>
+      <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="10">
+      <c r="A40" s="3">
         <v>31</v>
       </c>
-      <c r="B40" s="10">
-        <v>0</v>
-      </c>
-      <c r="C40" s="12">
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
         <v>31</v>
       </c>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="13">
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
         <v>31</v>
       </c>
-      <c r="F40" s="10">
-        <v>0</v>
-      </c>
-      <c r="G40" s="12">
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
         <v>31</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="13">
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="6">
         <v>31</v>
       </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="12">
+      <c r="J40" s="3">
+        <v>2</v>
+      </c>
+      <c r="K40" s="5">
         <v>31</v>
       </c>
-      <c r="L40" s="11"/>
-      <c r="M40" s="13">
+      <c r="L40" s="4"/>
+      <c r="M40" s="6">
         <v>31</v>
       </c>
-      <c r="N40" s="10"/>
-      <c r="O40" s="12">
+      <c r="N40" s="3"/>
+      <c r="O40" s="5">
         <v>31</v>
       </c>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="13">
+      <c r="P40" s="4"/>
+      <c r="Q40" s="6">
         <v>31</v>
       </c>
-      <c r="R40" s="9"/>
+      <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="10">
+      <c r="A41" s="3">
         <v>32</v>
       </c>
-      <c r="B41" s="10">
-        <v>0</v>
-      </c>
-      <c r="C41" s="12">
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
         <v>32</v>
       </c>
-      <c r="D41" s="11">
-        <v>0</v>
-      </c>
-      <c r="E41" s="13">
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
         <v>32</v>
       </c>
-      <c r="F41" s="10">
-        <v>0</v>
-      </c>
-      <c r="G41" s="12">
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
         <v>32</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="13">
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6">
         <v>32</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="12">
+      <c r="J41" s="3">
+        <v>2</v>
+      </c>
+      <c r="K41" s="5">
         <v>32</v>
       </c>
-      <c r="L41" s="11"/>
-      <c r="M41" s="13">
+      <c r="L41" s="4"/>
+      <c r="M41" s="6">
         <v>32</v>
       </c>
-      <c r="N41" s="10"/>
-      <c r="O41" s="12">
+      <c r="N41" s="3"/>
+      <c r="O41" s="5">
         <v>32</v>
       </c>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="13">
+      <c r="P41" s="4"/>
+      <c r="Q41" s="6">
         <v>32</v>
       </c>
-      <c r="R41" s="9"/>
+      <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="10">
+      <c r="A42" s="3">
         <v>33</v>
       </c>
-      <c r="B42" s="10">
-        <v>0</v>
-      </c>
-      <c r="C42" s="12">
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5">
         <v>33</v>
       </c>
-      <c r="D42" s="11">
-        <v>0</v>
-      </c>
-      <c r="E42" s="13">
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
         <v>33</v>
       </c>
-      <c r="F42" s="10">
-        <v>0</v>
-      </c>
-      <c r="G42" s="12">
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
         <v>33</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="13">
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
         <v>33</v>
       </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="12">
+      <c r="J42" s="3">
+        <v>3</v>
+      </c>
+      <c r="K42" s="5">
         <v>33</v>
       </c>
-      <c r="L42" s="11"/>
-      <c r="M42" s="13">
+      <c r="L42" s="4"/>
+      <c r="M42" s="6">
         <v>33</v>
       </c>
-      <c r="N42" s="10"/>
-      <c r="O42" s="12">
+      <c r="N42" s="3"/>
+      <c r="O42" s="5">
         <v>33</v>
       </c>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="13">
+      <c r="P42" s="4"/>
+      <c r="Q42" s="6">
         <v>33</v>
       </c>
-      <c r="R42" s="9"/>
+      <c r="R42" s="2"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="10">
+      <c r="A43" s="3">
         <v>34</v>
       </c>
-      <c r="B43" s="10">
-        <v>0</v>
-      </c>
-      <c r="C43" s="12">
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
         <v>34</v>
       </c>
-      <c r="D43" s="11">
-        <v>0</v>
-      </c>
-      <c r="E43" s="13">
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
         <v>34</v>
       </c>
-      <c r="F43" s="10">
-        <v>0</v>
-      </c>
-      <c r="G43" s="12">
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
         <v>34</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="13">
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6">
         <v>34</v>
       </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="12">
+      <c r="J43" s="3">
+        <v>2</v>
+      </c>
+      <c r="K43" s="5">
         <v>34</v>
       </c>
-      <c r="L43" s="11"/>
-      <c r="M43" s="13">
+      <c r="L43" s="4"/>
+      <c r="M43" s="6">
         <v>34</v>
       </c>
-      <c r="N43" s="10"/>
-      <c r="O43" s="12">
+      <c r="N43" s="3"/>
+      <c r="O43" s="5">
         <v>34</v>
       </c>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="13">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="6">
         <v>34</v>
       </c>
-      <c r="R43" s="9"/>
+      <c r="R43" s="2"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="10">
+      <c r="A44" s="3">
         <v>35</v>
       </c>
-      <c r="B44" s="10">
-        <v>0</v>
-      </c>
-      <c r="C44" s="12">
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5">
         <v>35</v>
       </c>
-      <c r="D44" s="11">
-        <v>0</v>
-      </c>
-      <c r="E44" s="13">
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
         <v>35</v>
       </c>
-      <c r="F44" s="10">
-        <v>0</v>
-      </c>
-      <c r="G44" s="12">
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
         <v>35</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="13">
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6">
         <v>35</v>
       </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="12">
+      <c r="J44" s="3">
+        <v>2</v>
+      </c>
+      <c r="K44" s="5">
         <v>35</v>
       </c>
-      <c r="L44" s="11"/>
-      <c r="M44" s="13">
+      <c r="L44" s="4"/>
+      <c r="M44" s="6">
         <v>35</v>
       </c>
-      <c r="N44" s="10"/>
-      <c r="O44" s="12">
+      <c r="N44" s="3"/>
+      <c r="O44" s="5">
         <v>35</v>
       </c>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="13">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="6">
         <v>35</v>
       </c>
-      <c r="R44" s="9"/>
+      <c r="R44" s="2"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="10">
+      <c r="A45" s="3">
         <v>36</v>
       </c>
-      <c r="B45" s="10">
-        <v>0</v>
-      </c>
-      <c r="C45" s="12">
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
         <v>36</v>
       </c>
-      <c r="D45" s="11">
-        <v>0</v>
-      </c>
-      <c r="E45" s="13">
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
         <v>36</v>
       </c>
-      <c r="F45" s="10">
-        <v>0</v>
-      </c>
-      <c r="G45" s="12">
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
         <v>36</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="13">
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="6">
         <v>36</v>
       </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="12">
+      <c r="J45" s="3">
+        <v>2</v>
+      </c>
+      <c r="K45" s="5">
         <v>36</v>
       </c>
-      <c r="L45" s="11"/>
-      <c r="M45" s="13">
+      <c r="L45" s="4"/>
+      <c r="M45" s="6">
         <v>36</v>
       </c>
-      <c r="N45" s="10"/>
-      <c r="O45" s="12">
+      <c r="N45" s="3"/>
+      <c r="O45" s="5">
         <v>36</v>
       </c>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="13">
+      <c r="P45" s="4"/>
+      <c r="Q45" s="6">
         <v>36</v>
       </c>
-      <c r="R45" s="9"/>
+      <c r="R45" s="2"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="10">
+      <c r="A46" s="3">
         <v>37</v>
       </c>
-      <c r="B46" s="10">
-        <v>0</v>
-      </c>
-      <c r="C46" s="12">
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5">
         <v>37</v>
       </c>
-      <c r="D46" s="11">
-        <v>0</v>
-      </c>
-      <c r="E46" s="13">
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
         <v>37</v>
       </c>
-      <c r="F46" s="10">
-        <v>0</v>
-      </c>
-      <c r="G46" s="12">
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
         <v>37</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="13">
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
         <v>37</v>
       </c>
-      <c r="J46" s="10"/>
-      <c r="K46" s="12">
+      <c r="J46" s="3">
+        <v>2</v>
+      </c>
+      <c r="K46" s="5">
         <v>37</v>
       </c>
-      <c r="L46" s="11"/>
-      <c r="M46" s="13">
+      <c r="L46" s="4"/>
+      <c r="M46" s="6">
         <v>37</v>
       </c>
-      <c r="N46" s="10"/>
-      <c r="O46" s="12">
+      <c r="N46" s="3"/>
+      <c r="O46" s="5">
         <v>37</v>
       </c>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="13">
+      <c r="P46" s="4"/>
+      <c r="Q46" s="6">
         <v>37</v>
       </c>
-      <c r="R46" s="9"/>
+      <c r="R46" s="2"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="10">
+      <c r="A47" s="3">
         <v>38</v>
       </c>
-      <c r="B47" s="10">
-        <v>0</v>
-      </c>
-      <c r="C47" s="12">
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
         <v>38</v>
       </c>
-      <c r="D47" s="11">
-        <v>0</v>
-      </c>
-      <c r="E47" s="13">
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
         <v>38</v>
       </c>
-      <c r="F47" s="10">
-        <v>0</v>
-      </c>
-      <c r="G47" s="12">
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
         <v>38</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="13">
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
         <v>38</v>
       </c>
-      <c r="J47" s="10"/>
-      <c r="K47" s="12">
+      <c r="J47" s="3">
+        <v>2</v>
+      </c>
+      <c r="K47" s="5">
         <v>38</v>
       </c>
-      <c r="L47" s="11"/>
-      <c r="M47" s="13">
+      <c r="L47" s="4"/>
+      <c r="M47" s="6">
         <v>38</v>
       </c>
-      <c r="N47" s="10"/>
-      <c r="O47" s="12">
+      <c r="N47" s="3"/>
+      <c r="O47" s="5">
         <v>38</v>
       </c>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="13">
+      <c r="P47" s="4"/>
+      <c r="Q47" s="6">
         <v>38</v>
       </c>
-      <c r="R47" s="9"/>
+      <c r="R47" s="2"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="10">
+      <c r="A48" s="3">
         <v>39</v>
       </c>
-      <c r="B48" s="10">
-        <v>0</v>
-      </c>
-      <c r="C48" s="12">
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5">
         <v>39</v>
       </c>
-      <c r="D48" s="11">
-        <v>0</v>
-      </c>
-      <c r="E48" s="13">
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
         <v>39</v>
       </c>
-      <c r="F48" s="10">
-        <v>0</v>
-      </c>
-      <c r="G48" s="12">
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
         <v>39</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="13">
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
         <v>39</v>
       </c>
-      <c r="J48" s="10"/>
-      <c r="K48" s="12">
+      <c r="J48" s="3">
+        <v>3</v>
+      </c>
+      <c r="K48" s="5">
         <v>39</v>
       </c>
-      <c r="L48" s="11"/>
-      <c r="M48" s="13">
+      <c r="L48" s="4"/>
+      <c r="M48" s="6">
         <v>39</v>
       </c>
-      <c r="N48" s="10"/>
-      <c r="O48" s="12">
+      <c r="N48" s="3"/>
+      <c r="O48" s="5">
         <v>39</v>
       </c>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="13">
+      <c r="P48" s="4"/>
+      <c r="Q48" s="6">
         <v>39</v>
       </c>
-      <c r="R48" s="9"/>
+      <c r="R48" s="2"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="10">
+      <c r="A49" s="3">
         <v>40</v>
       </c>
-      <c r="B49" s="10">
-        <v>0</v>
-      </c>
-      <c r="C49" s="12">
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
         <v>40</v>
       </c>
-      <c r="D49" s="11">
-        <v>0</v>
-      </c>
-      <c r="E49" s="13">
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
         <v>40</v>
       </c>
-      <c r="F49" s="10">
-        <v>0</v>
-      </c>
-      <c r="G49" s="12">
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
         <v>40</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="13">
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="6">
         <v>40</v>
       </c>
-      <c r="J49" s="10"/>
-      <c r="K49" s="12">
+      <c r="J49" s="3">
+        <v>3</v>
+      </c>
+      <c r="K49" s="5">
         <v>40</v>
       </c>
-      <c r="L49" s="11"/>
-      <c r="M49" s="13">
+      <c r="L49" s="4"/>
+      <c r="M49" s="6">
         <v>40</v>
       </c>
-      <c r="N49" s="10"/>
-      <c r="O49" s="12">
+      <c r="N49" s="3"/>
+      <c r="O49" s="5">
         <v>40</v>
       </c>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="13">
+      <c r="P49" s="4"/>
+      <c r="Q49" s="6">
         <v>40</v>
       </c>
-      <c r="R49" s="9"/>
+      <c r="R49" s="2"/>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="10">
+      <c r="A50" s="3">
         <v>41</v>
       </c>
-      <c r="B50" s="10">
-        <v>0</v>
-      </c>
-      <c r="C50" s="12">
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
         <v>41</v>
       </c>
-      <c r="D50" s="11">
-        <v>0</v>
-      </c>
-      <c r="E50" s="13">
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
         <v>41</v>
       </c>
-      <c r="F50" s="10">
-        <v>0</v>
-      </c>
-      <c r="G50" s="12">
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
         <v>41</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="13">
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
         <v>41</v>
       </c>
-      <c r="J50" s="10"/>
-      <c r="K50" s="12">
+      <c r="J50" s="3">
+        <v>3</v>
+      </c>
+      <c r="K50" s="5">
         <v>41</v>
       </c>
-      <c r="L50" s="11"/>
-      <c r="M50" s="13">
+      <c r="L50" s="4"/>
+      <c r="M50" s="6">
         <v>41</v>
       </c>
-      <c r="N50" s="10"/>
-      <c r="O50" s="12">
+      <c r="N50" s="3"/>
+      <c r="O50" s="5">
         <v>41</v>
       </c>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="13">
+      <c r="P50" s="4"/>
+      <c r="Q50" s="6">
         <v>41</v>
       </c>
-      <c r="R50" s="9"/>
+      <c r="R50" s="2"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="10">
+      <c r="A51" s="3">
         <v>42</v>
       </c>
-      <c r="B51" s="10">
-        <v>0</v>
-      </c>
-      <c r="C51" s="12">
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
         <v>42</v>
       </c>
-      <c r="D51" s="11">
-        <v>0</v>
-      </c>
-      <c r="E51" s="13">
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
         <v>42</v>
       </c>
-      <c r="F51" s="10">
-        <v>0</v>
-      </c>
-      <c r="G51" s="12">
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
         <v>42</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="13">
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6">
         <v>42</v>
       </c>
-      <c r="J51" s="10"/>
-      <c r="K51" s="12">
+      <c r="J51" s="3">
+        <v>2</v>
+      </c>
+      <c r="K51" s="5">
         <v>42</v>
       </c>
-      <c r="L51" s="11"/>
-      <c r="M51" s="13">
+      <c r="L51" s="4"/>
+      <c r="M51" s="6">
         <v>42</v>
       </c>
-      <c r="N51" s="10"/>
-      <c r="O51" s="12">
+      <c r="N51" s="3"/>
+      <c r="O51" s="5">
         <v>42</v>
       </c>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="13">
+      <c r="P51" s="4"/>
+      <c r="Q51" s="6">
         <v>42</v>
       </c>
-      <c r="R51" s="9"/>
+      <c r="R51" s="2"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="10">
+      <c r="A52" s="3">
         <v>43</v>
       </c>
-      <c r="B52" s="10">
-        <v>0</v>
-      </c>
-      <c r="C52" s="12">
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
         <v>43</v>
       </c>
-      <c r="D52" s="11">
-        <v>0</v>
-      </c>
-      <c r="E52" s="13">
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
         <v>43</v>
       </c>
-      <c r="F52" s="10">
-        <v>0</v>
-      </c>
-      <c r="G52" s="12">
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
         <v>43</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="13">
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="6">
         <v>43</v>
       </c>
-      <c r="J52" s="10"/>
-      <c r="K52" s="12">
+      <c r="J52" s="3">
+        <v>2</v>
+      </c>
+      <c r="K52" s="5">
         <v>43</v>
       </c>
-      <c r="L52" s="11"/>
-      <c r="M52" s="13">
+      <c r="L52" s="4"/>
+      <c r="M52" s="6">
         <v>43</v>
       </c>
-      <c r="N52" s="10"/>
-      <c r="O52" s="12">
+      <c r="N52" s="3"/>
+      <c r="O52" s="5">
         <v>43</v>
       </c>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="13">
+      <c r="P52" s="4"/>
+      <c r="Q52" s="6">
         <v>43</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="2"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="10">
+      <c r="A53" s="3">
         <v>44</v>
       </c>
-      <c r="B53" s="10">
-        <v>0</v>
-      </c>
-      <c r="C53" s="12">
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5">
         <v>44</v>
       </c>
-      <c r="D53" s="11">
-        <v>0</v>
-      </c>
-      <c r="E53" s="13">
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
         <v>44</v>
       </c>
-      <c r="F53" s="10">
-        <v>0</v>
-      </c>
-      <c r="G53" s="12">
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
         <v>44</v>
       </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="13">
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="6">
         <v>44</v>
       </c>
-      <c r="J53" s="10"/>
-      <c r="K53" s="12">
+      <c r="J53" s="3">
+        <v>3</v>
+      </c>
+      <c r="K53" s="5">
         <v>44</v>
       </c>
-      <c r="L53" s="11"/>
-      <c r="M53" s="13">
+      <c r="L53" s="4"/>
+      <c r="M53" s="6">
         <v>44</v>
       </c>
-      <c r="N53" s="10"/>
-      <c r="O53" s="12">
+      <c r="N53" s="3"/>
+      <c r="O53" s="5">
         <v>44</v>
       </c>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="13">
+      <c r="P53" s="4"/>
+      <c r="Q53" s="6">
         <v>44</v>
       </c>
-      <c r="R53" s="9"/>
+      <c r="R53" s="2"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="10">
+      <c r="A54" s="3">
         <v>45</v>
       </c>
-      <c r="B54" s="10">
-        <v>0</v>
-      </c>
-      <c r="C54" s="12">
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5">
         <v>45</v>
       </c>
-      <c r="D54" s="11">
-        <v>0</v>
-      </c>
-      <c r="E54" s="13">
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
         <v>45</v>
       </c>
-      <c r="F54" s="10">
-        <v>0</v>
-      </c>
-      <c r="G54" s="12">
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
         <v>45</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="13">
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6">
         <v>45</v>
       </c>
-      <c r="J54" s="10"/>
-      <c r="K54" s="12">
+      <c r="J54" s="3">
+        <v>2</v>
+      </c>
+      <c r="K54" s="5">
         <v>45</v>
       </c>
-      <c r="L54" s="11"/>
-      <c r="M54" s="13">
+      <c r="L54" s="4"/>
+      <c r="M54" s="6">
         <v>45</v>
       </c>
-      <c r="N54" s="10"/>
-      <c r="O54" s="12">
+      <c r="N54" s="3"/>
+      <c r="O54" s="5">
         <v>45</v>
       </c>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="13">
+      <c r="P54" s="4"/>
+      <c r="Q54" s="6">
         <v>45</v>
       </c>
-      <c r="R54" s="9"/>
+      <c r="R54" s="2"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="10">
+      <c r="A55" s="3">
         <v>46</v>
       </c>
-      <c r="B55" s="10">
-        <v>0</v>
-      </c>
-      <c r="C55" s="12">
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="5">
         <v>46</v>
       </c>
-      <c r="D55" s="11">
-        <v>0</v>
-      </c>
-      <c r="E55" s="13">
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
         <v>46</v>
       </c>
-      <c r="F55" s="10">
-        <v>0</v>
-      </c>
-      <c r="G55" s="12">
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
         <v>46</v>
       </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="13">
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6">
         <v>46</v>
       </c>
-      <c r="J55" s="10"/>
-      <c r="K55" s="12">
+      <c r="J55" s="3">
+        <v>2</v>
+      </c>
+      <c r="K55" s="5">
         <v>46</v>
       </c>
-      <c r="L55" s="11"/>
-      <c r="M55" s="13">
+      <c r="L55" s="4"/>
+      <c r="M55" s="6">
         <v>46</v>
       </c>
-      <c r="N55" s="10"/>
-      <c r="O55" s="12">
+      <c r="N55" s="3"/>
+      <c r="O55" s="5">
         <v>46</v>
       </c>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="13">
+      <c r="P55" s="4"/>
+      <c r="Q55" s="6">
         <v>46</v>
       </c>
-      <c r="R55" s="9"/>
+      <c r="R55" s="2"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="10">
+      <c r="A56" s="3">
         <v>47</v>
       </c>
-      <c r="B56" s="10">
-        <v>0</v>
-      </c>
-      <c r="C56" s="12">
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="5">
         <v>47</v>
       </c>
-      <c r="D56" s="11">
-        <v>0</v>
-      </c>
-      <c r="E56" s="13">
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
         <v>47</v>
       </c>
-      <c r="F56" s="10">
-        <v>0</v>
-      </c>
-      <c r="G56" s="12">
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
         <v>47</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="13">
+      <c r="H56" s="4">
+        <v>1</v>
+      </c>
+      <c r="I56" s="6">
         <v>47</v>
       </c>
-      <c r="J56" s="10"/>
-      <c r="K56" s="12">
+      <c r="J56" s="3">
+        <v>3</v>
+      </c>
+      <c r="K56" s="5">
         <v>47</v>
       </c>
-      <c r="L56" s="11"/>
-      <c r="M56" s="13">
+      <c r="L56" s="4"/>
+      <c r="M56" s="6">
         <v>47</v>
       </c>
-      <c r="N56" s="10"/>
-      <c r="O56" s="12">
+      <c r="N56" s="3"/>
+      <c r="O56" s="5">
         <v>47</v>
       </c>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="13">
+      <c r="P56" s="4"/>
+      <c r="Q56" s="6">
         <v>47</v>
       </c>
-      <c r="R56" s="9"/>
+      <c r="R56" s="2"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="10">
+      <c r="A57" s="3">
         <v>48</v>
       </c>
-      <c r="B57" s="10">
-        <v>0</v>
-      </c>
-      <c r="C57" s="12">
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5">
         <v>48</v>
       </c>
-      <c r="D57" s="11">
-        <v>0</v>
-      </c>
-      <c r="E57" s="13">
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
         <v>48</v>
       </c>
-      <c r="F57" s="10">
-        <v>0</v>
-      </c>
-      <c r="G57" s="12">
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
         <v>48</v>
       </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="13">
+      <c r="H57" s="4">
+        <v>1</v>
+      </c>
+      <c r="I57" s="6">
         <v>48</v>
       </c>
-      <c r="J57" s="10"/>
-      <c r="K57" s="12">
+      <c r="J57" s="3">
+        <v>2</v>
+      </c>
+      <c r="K57" s="5">
         <v>48</v>
       </c>
-      <c r="L57" s="11"/>
-      <c r="M57" s="13">
+      <c r="L57" s="4"/>
+      <c r="M57" s="6">
         <v>48</v>
       </c>
-      <c r="N57" s="10"/>
-      <c r="O57" s="12">
+      <c r="N57" s="3"/>
+      <c r="O57" s="5">
         <v>48</v>
       </c>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="13">
+      <c r="P57" s="4"/>
+      <c r="Q57" s="6">
         <v>48</v>
       </c>
-      <c r="R57" s="9"/>
+      <c r="R57" s="2"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="10">
+      <c r="A58" s="3">
         <v>49</v>
       </c>
-      <c r="B58" s="10">
-        <v>0</v>
-      </c>
-      <c r="C58" s="12">
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
+      <c r="C58" s="5">
         <v>49</v>
       </c>
-      <c r="D58" s="11">
-        <v>0</v>
-      </c>
-      <c r="E58" s="13">
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
         <v>49</v>
       </c>
-      <c r="F58" s="10">
-        <v>0</v>
-      </c>
-      <c r="G58" s="12">
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
         <v>49</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="13">
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="6">
         <v>49</v>
       </c>
-      <c r="J58" s="10"/>
-      <c r="K58" s="12">
+      <c r="J58" s="3">
+        <v>2</v>
+      </c>
+      <c r="K58" s="5">
         <v>49</v>
       </c>
-      <c r="L58" s="11"/>
-      <c r="M58" s="13">
+      <c r="L58" s="4"/>
+      <c r="M58" s="6">
         <v>49</v>
       </c>
-      <c r="N58" s="10"/>
-      <c r="O58" s="12">
+      <c r="N58" s="3"/>
+      <c r="O58" s="5">
         <v>49</v>
       </c>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="13">
+      <c r="P58" s="4"/>
+      <c r="Q58" s="6">
         <v>49</v>
       </c>
-      <c r="R58" s="9"/>
+      <c r="R58" s="2"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="10">
+      <c r="A59" s="3">
         <v>50</v>
       </c>
-      <c r="B59" s="10">
-        <v>0</v>
-      </c>
-      <c r="C59" s="12">
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
+      <c r="C59" s="5">
         <v>50</v>
       </c>
-      <c r="D59" s="11">
-        <v>0</v>
-      </c>
-      <c r="E59" s="13">
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
         <v>50</v>
       </c>
-      <c r="F59" s="10">
-        <v>0</v>
-      </c>
-      <c r="G59" s="12">
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
         <v>50</v>
       </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="13">
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
+      <c r="I59" s="6">
         <v>50</v>
       </c>
-      <c r="J59" s="10"/>
-      <c r="K59" s="12">
+      <c r="J59" s="3">
+        <v>3</v>
+      </c>
+      <c r="K59" s="5">
         <v>50</v>
       </c>
-      <c r="L59" s="11"/>
-      <c r="M59" s="13">
+      <c r="L59" s="4"/>
+      <c r="M59" s="6">
         <v>50</v>
       </c>
-      <c r="N59" s="10"/>
-      <c r="O59" s="12">
+      <c r="N59" s="3"/>
+      <c r="O59" s="5">
         <v>50</v>
       </c>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="13">
+      <c r="P59" s="4"/>
+      <c r="Q59" s="6">
         <v>50</v>
       </c>
-      <c r="R59" s="9"/>
+      <c r="R59" s="2"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="15">
+        <f>SUM(B10:B59)</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="15">
+        <f>SUM(D10:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="15">
+        <f>SUM(F10:F59)</f>
+        <v>3</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="15">
+        <f>SUM(H10:H59)</f>
+        <v>32</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" s="15">
+        <f>SUM(J10:J59)</f>
+        <v>112</v>
+      </c>
+      <c r="K61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L61" s="15">
+        <f>SUM(L10:L59)</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N61" s="15">
+        <f>SUM(N10:N59)</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P61" s="15">
+        <f>SUM(P10:P59)</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R61" s="15">
+        <f>SUM(R10:R59)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Lab1_Sorts/reports/Analysis.xlsx
+++ b/Lab1_Sorts/reports/Analysis.xlsx
@@ -9,19 +9,24 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
   <si>
     <t>Selection Sort</t>
   </si>
   <si>
     <t>Time Sum</t>
+  </si>
+  <si>
+    <t>Bucket Sort</t>
+  </si>
+  <si>
+    <t>Aver</t>
   </si>
 </sst>
 </file>
@@ -129,16 +134,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -150,8 +151,12 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -452,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R61"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="C36" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,39 +550,39 @@
       <c r="D8"/>
       <c r="F8"/>
       <c r="H8"/>
-      <c r="I8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7"/>
+      <c r="I8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14"/>
       <c r="L8"/>
       <c r="N8"/>
       <c r="P8"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="8">
+      <c r="A9" s="15">
         <v>10</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9">
         <v>50</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10">
+      <c r="D9" s="10"/>
+      <c r="E9" s="9">
         <v>100</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10">
+      <c r="F9" s="10"/>
+      <c r="G9" s="9">
         <v>500</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10">
+      <c r="H9" s="10"/>
+      <c r="I9" s="9">
         <v>1000</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10">
+      <c r="J9" s="10"/>
+      <c r="K9" s="9">
         <v>5000</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="10"/>
       <c r="M9" s="11">
         <v>10000</v>
       </c>
@@ -625,7 +630,9 @@
       <c r="K10" s="5">
         <v>1</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4">
+        <v>72</v>
+      </c>
       <c r="M10" s="6">
         <v>1</v>
       </c>
@@ -673,7 +680,9 @@
       <c r="K11" s="5">
         <v>2</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="4">
+        <v>73</v>
+      </c>
       <c r="M11" s="6">
         <v>2</v>
       </c>
@@ -721,7 +730,9 @@
       <c r="K12" s="5">
         <v>3</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4">
+        <v>73</v>
+      </c>
       <c r="M12" s="6">
         <v>3</v>
       </c>
@@ -769,7 +780,9 @@
       <c r="K13" s="5">
         <v>4</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4">
+        <v>73</v>
+      </c>
       <c r="M13" s="6">
         <v>4</v>
       </c>
@@ -817,7 +830,9 @@
       <c r="K14" s="5">
         <v>5</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4">
+        <v>72</v>
+      </c>
       <c r="M14" s="6">
         <v>5</v>
       </c>
@@ -865,7 +880,9 @@
       <c r="K15" s="5">
         <v>6</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4">
+        <v>72</v>
+      </c>
       <c r="M15" s="6">
         <v>6</v>
       </c>
@@ -913,7 +930,9 @@
       <c r="K16" s="5">
         <v>7</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4">
+        <v>72</v>
+      </c>
       <c r="M16" s="6">
         <v>7</v>
       </c>
@@ -961,7 +980,9 @@
       <c r="K17" s="5">
         <v>8</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4">
+        <v>74</v>
+      </c>
       <c r="M17" s="6">
         <v>8</v>
       </c>
@@ -1009,7 +1030,9 @@
       <c r="K18" s="5">
         <v>9</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4">
+        <v>74</v>
+      </c>
       <c r="M18" s="6">
         <v>9</v>
       </c>
@@ -1057,7 +1080,9 @@
       <c r="K19" s="5">
         <v>10</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4">
+        <v>72</v>
+      </c>
       <c r="M19" s="6">
         <v>10</v>
       </c>
@@ -1105,7 +1130,9 @@
       <c r="K20" s="5">
         <v>11</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4">
+        <v>72</v>
+      </c>
       <c r="M20" s="6">
         <v>11</v>
       </c>
@@ -1153,7 +1180,9 @@
       <c r="K21" s="5">
         <v>12</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4">
+        <v>72</v>
+      </c>
       <c r="M21" s="6">
         <v>12</v>
       </c>
@@ -1201,7 +1230,9 @@
       <c r="K22" s="5">
         <v>13</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4">
+        <v>74</v>
+      </c>
       <c r="M22" s="6">
         <v>13</v>
       </c>
@@ -1249,7 +1280,9 @@
       <c r="K23" s="5">
         <v>14</v>
       </c>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4">
+        <v>73</v>
+      </c>
       <c r="M23" s="6">
         <v>14</v>
       </c>
@@ -1297,7 +1330,9 @@
       <c r="K24" s="5">
         <v>15</v>
       </c>
-      <c r="L24" s="4"/>
+      <c r="L24" s="4">
+        <v>74</v>
+      </c>
       <c r="M24" s="6">
         <v>15</v>
       </c>
@@ -1345,7 +1380,9 @@
       <c r="K25" s="5">
         <v>16</v>
       </c>
-      <c r="L25" s="4"/>
+      <c r="L25" s="4">
+        <v>73</v>
+      </c>
       <c r="M25" s="6">
         <v>16</v>
       </c>
@@ -1393,7 +1430,9 @@
       <c r="K26" s="5">
         <v>17</v>
       </c>
-      <c r="L26" s="4"/>
+      <c r="L26" s="4">
+        <v>73</v>
+      </c>
       <c r="M26" s="6">
         <v>17</v>
       </c>
@@ -1441,7 +1480,9 @@
       <c r="K27" s="5">
         <v>18</v>
       </c>
-      <c r="L27" s="4"/>
+      <c r="L27" s="4">
+        <v>73</v>
+      </c>
       <c r="M27" s="6">
         <v>18</v>
       </c>
@@ -1489,7 +1530,9 @@
       <c r="K28" s="5">
         <v>19</v>
       </c>
-      <c r="L28" s="4"/>
+      <c r="L28" s="4">
+        <v>72</v>
+      </c>
       <c r="M28" s="6">
         <v>19</v>
       </c>
@@ -1537,7 +1580,9 @@
       <c r="K29" s="5">
         <v>20</v>
       </c>
-      <c r="L29" s="4"/>
+      <c r="L29" s="4">
+        <v>73</v>
+      </c>
       <c r="M29" s="6">
         <v>20</v>
       </c>
@@ -1585,7 +1630,9 @@
       <c r="K30" s="5">
         <v>21</v>
       </c>
-      <c r="L30" s="4"/>
+      <c r="L30" s="4">
+        <v>73</v>
+      </c>
       <c r="M30" s="6">
         <v>21</v>
       </c>
@@ -1633,7 +1680,9 @@
       <c r="K31" s="5">
         <v>22</v>
       </c>
-      <c r="L31" s="4"/>
+      <c r="L31" s="4">
+        <v>73</v>
+      </c>
       <c r="M31" s="6">
         <v>22</v>
       </c>
@@ -1681,7 +1730,9 @@
       <c r="K32" s="5">
         <v>23</v>
       </c>
-      <c r="L32" s="4"/>
+      <c r="L32" s="4">
+        <v>73</v>
+      </c>
       <c r="M32" s="6">
         <v>23</v>
       </c>
@@ -1729,7 +1780,9 @@
       <c r="K33" s="5">
         <v>24</v>
       </c>
-      <c r="L33" s="4"/>
+      <c r="L33" s="4">
+        <v>74</v>
+      </c>
       <c r="M33" s="6">
         <v>24</v>
       </c>
@@ -1777,7 +1830,9 @@
       <c r="K34" s="5">
         <v>25</v>
       </c>
-      <c r="L34" s="4"/>
+      <c r="L34" s="4">
+        <v>73</v>
+      </c>
       <c r="M34" s="6">
         <v>25</v>
       </c>
@@ -1825,7 +1880,9 @@
       <c r="K35" s="5">
         <v>26</v>
       </c>
-      <c r="L35" s="4"/>
+      <c r="L35" s="4">
+        <v>75</v>
+      </c>
       <c r="M35" s="6">
         <v>26</v>
       </c>
@@ -1873,7 +1930,9 @@
       <c r="K36" s="5">
         <v>27</v>
       </c>
-      <c r="L36" s="4"/>
+      <c r="L36" s="4">
+        <v>73</v>
+      </c>
       <c r="M36" s="6">
         <v>27</v>
       </c>
@@ -1921,7 +1980,9 @@
       <c r="K37" s="5">
         <v>28</v>
       </c>
-      <c r="L37" s="4"/>
+      <c r="L37" s="4">
+        <v>74</v>
+      </c>
       <c r="M37" s="6">
         <v>28</v>
       </c>
@@ -1969,7 +2030,9 @@
       <c r="K38" s="5">
         <v>29</v>
       </c>
-      <c r="L38" s="4"/>
+      <c r="L38" s="4">
+        <v>72</v>
+      </c>
       <c r="M38" s="6">
         <v>29</v>
       </c>
@@ -2017,7 +2080,9 @@
       <c r="K39" s="5">
         <v>30</v>
       </c>
-      <c r="L39" s="4"/>
+      <c r="L39" s="4">
+        <v>73</v>
+      </c>
       <c r="M39" s="6">
         <v>30</v>
       </c>
@@ -2065,7 +2130,9 @@
       <c r="K40" s="5">
         <v>31</v>
       </c>
-      <c r="L40" s="4"/>
+      <c r="L40" s="4">
+        <v>73</v>
+      </c>
       <c r="M40" s="6">
         <v>31</v>
       </c>
@@ -2113,7 +2180,9 @@
       <c r="K41" s="5">
         <v>32</v>
       </c>
-      <c r="L41" s="4"/>
+      <c r="L41" s="4">
+        <v>73</v>
+      </c>
       <c r="M41" s="6">
         <v>32</v>
       </c>
@@ -2161,7 +2230,9 @@
       <c r="K42" s="5">
         <v>33</v>
       </c>
-      <c r="L42" s="4"/>
+      <c r="L42" s="4">
+        <v>73</v>
+      </c>
       <c r="M42" s="6">
         <v>33</v>
       </c>
@@ -2209,7 +2280,9 @@
       <c r="K43" s="5">
         <v>34</v>
       </c>
-      <c r="L43" s="4"/>
+      <c r="L43" s="4">
+        <v>73</v>
+      </c>
       <c r="M43" s="6">
         <v>34</v>
       </c>
@@ -2257,7 +2330,9 @@
       <c r="K44" s="5">
         <v>35</v>
       </c>
-      <c r="L44" s="4"/>
+      <c r="L44" s="4">
+        <v>72</v>
+      </c>
       <c r="M44" s="6">
         <v>35</v>
       </c>
@@ -2305,7 +2380,9 @@
       <c r="K45" s="5">
         <v>36</v>
       </c>
-      <c r="L45" s="4"/>
+      <c r="L45" s="4">
+        <v>74</v>
+      </c>
       <c r="M45" s="6">
         <v>36</v>
       </c>
@@ -2353,7 +2430,9 @@
       <c r="K46" s="5">
         <v>37</v>
       </c>
-      <c r="L46" s="4"/>
+      <c r="L46" s="4">
+        <v>73</v>
+      </c>
       <c r="M46" s="6">
         <v>37</v>
       </c>
@@ -2401,7 +2480,9 @@
       <c r="K47" s="5">
         <v>38</v>
       </c>
-      <c r="L47" s="4"/>
+      <c r="L47" s="4">
+        <v>73</v>
+      </c>
       <c r="M47" s="6">
         <v>38</v>
       </c>
@@ -2449,7 +2530,9 @@
       <c r="K48" s="5">
         <v>39</v>
       </c>
-      <c r="L48" s="4"/>
+      <c r="L48" s="4">
+        <v>72</v>
+      </c>
       <c r="M48" s="6">
         <v>39</v>
       </c>
@@ -2497,7 +2580,9 @@
       <c r="K49" s="5">
         <v>40</v>
       </c>
-      <c r="L49" s="4"/>
+      <c r="L49" s="4">
+        <v>72</v>
+      </c>
       <c r="M49" s="6">
         <v>40</v>
       </c>
@@ -2545,7 +2630,9 @@
       <c r="K50" s="5">
         <v>41</v>
       </c>
-      <c r="L50" s="4"/>
+      <c r="L50" s="4">
+        <v>74</v>
+      </c>
       <c r="M50" s="6">
         <v>41</v>
       </c>
@@ -2593,7 +2680,9 @@
       <c r="K51" s="5">
         <v>42</v>
       </c>
-      <c r="L51" s="4"/>
+      <c r="L51" s="4">
+        <v>72</v>
+      </c>
       <c r="M51" s="6">
         <v>42</v>
       </c>
@@ -2641,7 +2730,9 @@
       <c r="K52" s="5">
         <v>43</v>
       </c>
-      <c r="L52" s="4"/>
+      <c r="L52" s="4">
+        <v>74</v>
+      </c>
       <c r="M52" s="6">
         <v>43</v>
       </c>
@@ -2689,7 +2780,9 @@
       <c r="K53" s="5">
         <v>44</v>
       </c>
-      <c r="L53" s="4"/>
+      <c r="L53" s="4">
+        <v>73</v>
+      </c>
       <c r="M53" s="6">
         <v>44</v>
       </c>
@@ -2737,7 +2830,9 @@
       <c r="K54" s="5">
         <v>45</v>
       </c>
-      <c r="L54" s="4"/>
+      <c r="L54" s="4">
+        <v>71</v>
+      </c>
       <c r="M54" s="6">
         <v>45</v>
       </c>
@@ -2785,7 +2880,9 @@
       <c r="K55" s="5">
         <v>46</v>
       </c>
-      <c r="L55" s="4"/>
+      <c r="L55" s="4">
+        <v>73</v>
+      </c>
       <c r="M55" s="6">
         <v>46</v>
       </c>
@@ -2833,7 +2930,9 @@
       <c r="K56" s="5">
         <v>47</v>
       </c>
-      <c r="L56" s="4"/>
+      <c r="L56" s="4">
+        <v>72</v>
+      </c>
       <c r="M56" s="6">
         <v>47</v>
       </c>
@@ -2881,7 +2980,9 @@
       <c r="K57" s="5">
         <v>48</v>
       </c>
-      <c r="L57" s="4"/>
+      <c r="L57" s="4">
+        <v>72</v>
+      </c>
       <c r="M57" s="6">
         <v>48</v>
       </c>
@@ -2929,7 +3030,9 @@
       <c r="K58" s="5">
         <v>49</v>
       </c>
-      <c r="L58" s="4"/>
+      <c r="L58" s="4">
+        <v>74</v>
+      </c>
       <c r="M58" s="6">
         <v>49</v>
       </c>
@@ -2977,7 +3080,9 @@
       <c r="K59" s="5">
         <v>50</v>
       </c>
-      <c r="L59" s="4"/>
+      <c r="L59" s="4">
+        <v>72</v>
+      </c>
       <c r="M59" s="6">
         <v>50</v>
       </c>
@@ -2992,67 +3097,2907 @@
       <c r="R59" s="2"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="15">
+      <c r="A61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="8">
         <f>SUM(B10:B59)</f>
         <v>0</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="15">
+      <c r="C61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="8">
         <f>SUM(D10:D59)</f>
         <v>0</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="15">
+      <c r="E61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="8">
         <f>SUM(F10:F59)</f>
         <v>3</v>
       </c>
-      <c r="G61" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H61" s="15">
+      <c r="G61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="8">
         <f>SUM(H10:H59)</f>
         <v>32</v>
       </c>
-      <c r="I61" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J61" s="15">
+      <c r="I61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" s="8">
         <f>SUM(J10:J59)</f>
         <v>112</v>
       </c>
-      <c r="K61" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L61" s="15">
+      <c r="K61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L61" s="8">
         <f>SUM(L10:L59)</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="N61" s="15">
+        <v>3644</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N61" s="8">
         <f>SUM(N10:N59)</f>
         <v>0</v>
       </c>
-      <c r="O61" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P61" s="15">
+      <c r="O61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P61" s="8">
         <f>SUM(P10:P59)</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="R61" s="15">
+      <c r="Q61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R61" s="8">
         <f>SUM(R10:R59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="C62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="8">
+        <f>D61/50</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="8">
+        <f>F61/50</f>
+        <v>0.06</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="8">
+        <f>H61/50</f>
+        <v>0.64</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="8">
+        <f>J61/50</f>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="8">
+        <f>L61/50</f>
+        <v>72.88</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="8">
+        <f>N61/50</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="8">
+        <f>P61/50</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="8">
+        <f>R61/50</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="I8:J8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R62"/>
+  <sheetViews>
+    <sheetView topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:R62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1"/>
+      <c r="D1"/>
+      <c r="F1"/>
+      <c r="H1"/>
+      <c r="J1"/>
+      <c r="L1"/>
+      <c r="N1"/>
+      <c r="P1"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="B2"/>
+      <c r="D2"/>
+      <c r="F2"/>
+      <c r="H2"/>
+      <c r="J2"/>
+      <c r="L2"/>
+      <c r="N2"/>
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="B3"/>
+      <c r="D3"/>
+      <c r="F3"/>
+      <c r="H3"/>
+      <c r="J3"/>
+      <c r="L3"/>
+      <c r="N3"/>
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="B4"/>
+      <c r="D4"/>
+      <c r="F4"/>
+      <c r="H4"/>
+      <c r="J4"/>
+      <c r="L4"/>
+      <c r="N4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="B5"/>
+      <c r="D5"/>
+      <c r="F5"/>
+      <c r="H5"/>
+      <c r="J5"/>
+      <c r="L5"/>
+      <c r="N5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="B6"/>
+      <c r="D6"/>
+      <c r="F6"/>
+      <c r="H6"/>
+      <c r="J6"/>
+      <c r="L6"/>
+      <c r="N6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="B7"/>
+      <c r="D7"/>
+      <c r="F7"/>
+      <c r="H7"/>
+      <c r="J7"/>
+      <c r="L7"/>
+      <c r="N7"/>
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8"/>
+      <c r="D8"/>
+      <c r="F8"/>
+      <c r="H8"/>
+      <c r="I8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="L8"/>
+      <c r="N8"/>
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="15">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9">
+        <v>50</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9">
+        <v>100</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9">
+        <v>500</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9">
+        <v>5000</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11">
+        <v>10000</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="11">
+        <v>50000</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="11">
+        <v>100000</v>
+      </c>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>74</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>73</v>
+      </c>
+      <c r="M11" s="6">
+        <v>2</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="5">
+        <v>2</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="6">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3</v>
+      </c>
+      <c r="L12" s="4">
+        <v>73</v>
+      </c>
+      <c r="M12" s="6">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="5">
+        <v>3</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="6">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>4</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13" s="5">
+        <v>4</v>
+      </c>
+      <c r="L13" s="4">
+        <v>75</v>
+      </c>
+      <c r="M13" s="6">
+        <v>4</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="5">
+        <v>4</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="6">
+        <v>4</v>
+      </c>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="5">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
+        <v>76</v>
+      </c>
+      <c r="M14" s="6">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="5">
+        <v>5</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="6">
+        <v>5</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>6</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="K15" s="5">
+        <v>6</v>
+      </c>
+      <c r="L15" s="4">
+        <v>75</v>
+      </c>
+      <c r="M15" s="6">
+        <v>6</v>
+      </c>
+      <c r="N15" s="3"/>
+      <c r="O15" s="5">
+        <v>6</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="6">
+        <v>6</v>
+      </c>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>7</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>7</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="5">
+        <v>7</v>
+      </c>
+      <c r="L16" s="4">
+        <v>73</v>
+      </c>
+      <c r="M16" s="6">
+        <v>7</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="5">
+        <v>7</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="6">
+        <v>7</v>
+      </c>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>8</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="5">
+        <v>8</v>
+      </c>
+      <c r="L17" s="4">
+        <v>73</v>
+      </c>
+      <c r="M17" s="6">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3"/>
+      <c r="O17" s="5">
+        <v>8</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="6">
+        <v>8</v>
+      </c>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>9</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>9</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="5">
+        <v>9</v>
+      </c>
+      <c r="L18" s="4">
+        <v>73</v>
+      </c>
+      <c r="M18" s="6">
+        <v>9</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="5">
+        <v>9</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="6">
+        <v>9</v>
+      </c>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>10</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3</v>
+      </c>
+      <c r="K19" s="5">
+        <v>10</v>
+      </c>
+      <c r="L19" s="4">
+        <v>74</v>
+      </c>
+      <c r="M19" s="6">
+        <v>10</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="5">
+        <v>10</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="6">
+        <v>10</v>
+      </c>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>11</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>11</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>11</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3</v>
+      </c>
+      <c r="K20" s="5">
+        <v>11</v>
+      </c>
+      <c r="L20" s="4">
+        <v>73</v>
+      </c>
+      <c r="M20" s="6">
+        <v>11</v>
+      </c>
+      <c r="N20" s="3"/>
+      <c r="O20" s="5">
+        <v>11</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="6">
+        <v>11</v>
+      </c>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>12</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>12</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>12</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3</v>
+      </c>
+      <c r="K21" s="5">
+        <v>12</v>
+      </c>
+      <c r="L21" s="4">
+        <v>75</v>
+      </c>
+      <c r="M21" s="6">
+        <v>12</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="5">
+        <v>12</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="6">
+        <v>12</v>
+      </c>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>13</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>13</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3</v>
+      </c>
+      <c r="K22" s="5">
+        <v>13</v>
+      </c>
+      <c r="L22" s="4">
+        <v>76</v>
+      </c>
+      <c r="M22" s="6">
+        <v>13</v>
+      </c>
+      <c r="N22" s="3"/>
+      <c r="O22" s="5">
+        <v>13</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="6">
+        <v>13</v>
+      </c>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>14</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6">
+        <v>14</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2</v>
+      </c>
+      <c r="K23" s="5">
+        <v>14</v>
+      </c>
+      <c r="L23" s="4">
+        <v>75</v>
+      </c>
+      <c r="M23" s="6">
+        <v>14</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="5">
+        <v>14</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="6">
+        <v>14</v>
+      </c>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>15</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>15</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="5">
+        <v>15</v>
+      </c>
+      <c r="L24" s="4">
+        <v>73</v>
+      </c>
+      <c r="M24" s="6">
+        <v>15</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="5">
+        <v>15</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="6">
+        <v>15</v>
+      </c>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>16</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>16</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>16</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6">
+        <v>16</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3</v>
+      </c>
+      <c r="K25" s="5">
+        <v>16</v>
+      </c>
+      <c r="L25" s="4">
+        <v>74</v>
+      </c>
+      <c r="M25" s="6">
+        <v>16</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="5">
+        <v>16</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="6">
+        <v>16</v>
+      </c>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>17</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>17</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>17</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="5">
+        <v>17</v>
+      </c>
+      <c r="L26" s="4">
+        <v>76</v>
+      </c>
+      <c r="M26" s="6">
+        <v>17</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="5">
+        <v>17</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="6">
+        <v>17</v>
+      </c>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>18</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>18</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>18</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3</v>
+      </c>
+      <c r="K27" s="5">
+        <v>18</v>
+      </c>
+      <c r="L27" s="4">
+        <v>76</v>
+      </c>
+      <c r="M27" s="6">
+        <v>18</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="5">
+        <v>18</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="6">
+        <v>18</v>
+      </c>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>19</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>19</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6">
+        <v>19</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2</v>
+      </c>
+      <c r="K28" s="5">
+        <v>19</v>
+      </c>
+      <c r="L28" s="4">
+        <v>75</v>
+      </c>
+      <c r="M28" s="6">
+        <v>19</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="5">
+        <v>19</v>
+      </c>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="6">
+        <v>19</v>
+      </c>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>20</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>20</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>20</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="5">
+        <v>20</v>
+      </c>
+      <c r="L29" s="4">
+        <v>75</v>
+      </c>
+      <c r="M29" s="6">
+        <v>20</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="5">
+        <v>20</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="6">
+        <v>20</v>
+      </c>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>21</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>21</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>21</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>21</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="5">
+        <v>21</v>
+      </c>
+      <c r="L30" s="4">
+        <v>74</v>
+      </c>
+      <c r="M30" s="6">
+        <v>21</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="5">
+        <v>21</v>
+      </c>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="6">
+        <v>21</v>
+      </c>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="3">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>22</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>22</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6">
+        <v>22</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2</v>
+      </c>
+      <c r="K31" s="5">
+        <v>22</v>
+      </c>
+      <c r="L31" s="4">
+        <v>74</v>
+      </c>
+      <c r="M31" s="6">
+        <v>22</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="5">
+        <v>22</v>
+      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="6">
+        <v>22</v>
+      </c>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="3">
+        <v>23</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>23</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>23</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6">
+        <v>23</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2</v>
+      </c>
+      <c r="K32" s="5">
+        <v>23</v>
+      </c>
+      <c r="L32" s="4">
+        <v>77</v>
+      </c>
+      <c r="M32" s="6">
+        <v>23</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="5">
+        <v>23</v>
+      </c>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="6">
+        <v>23</v>
+      </c>
+      <c r="R32" s="2"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="3">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>24</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>24</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>24</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="6">
+        <v>24</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3</v>
+      </c>
+      <c r="K33" s="5">
+        <v>24</v>
+      </c>
+      <c r="L33" s="4">
+        <v>77</v>
+      </c>
+      <c r="M33" s="6">
+        <v>24</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="5">
+        <v>24</v>
+      </c>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="6">
+        <v>24</v>
+      </c>
+      <c r="R33" s="2"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="3">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>25</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>25</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>25</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34" s="6">
+        <v>25</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2</v>
+      </c>
+      <c r="K34" s="5">
+        <v>25</v>
+      </c>
+      <c r="L34" s="4">
+        <v>76</v>
+      </c>
+      <c r="M34" s="6">
+        <v>25</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="5">
+        <v>25</v>
+      </c>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="6">
+        <v>25</v>
+      </c>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="3">
+        <v>26</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>26</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>26</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>26</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="6">
+        <v>26</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2</v>
+      </c>
+      <c r="K35" s="5">
+        <v>26</v>
+      </c>
+      <c r="L35" s="4">
+        <v>75</v>
+      </c>
+      <c r="M35" s="6">
+        <v>26</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="5">
+        <v>26</v>
+      </c>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="6">
+        <v>26</v>
+      </c>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="3">
+        <v>27</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>27</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>27</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>27</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <v>27</v>
+      </c>
+      <c r="J36" s="3">
+        <v>3</v>
+      </c>
+      <c r="K36" s="5">
+        <v>27</v>
+      </c>
+      <c r="L36" s="4">
+        <v>75</v>
+      </c>
+      <c r="M36" s="6">
+        <v>27</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="5">
+        <v>27</v>
+      </c>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="6">
+        <v>27</v>
+      </c>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="3">
+        <v>28</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>28</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>28</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>28</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="6">
+        <v>28</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3</v>
+      </c>
+      <c r="K37" s="5">
+        <v>28</v>
+      </c>
+      <c r="L37" s="4">
+        <v>75</v>
+      </c>
+      <c r="M37" s="6">
+        <v>28</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="5">
+        <v>28</v>
+      </c>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="6">
+        <v>28</v>
+      </c>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="3">
+        <v>29</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>29</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>29</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>29</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6">
+        <v>29</v>
+      </c>
+      <c r="J38" s="3">
+        <v>3</v>
+      </c>
+      <c r="K38" s="5">
+        <v>29</v>
+      </c>
+      <c r="L38" s="4">
+        <v>74</v>
+      </c>
+      <c r="M38" s="6">
+        <v>29</v>
+      </c>
+      <c r="N38" s="3"/>
+      <c r="O38" s="5">
+        <v>29</v>
+      </c>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="6">
+        <v>29</v>
+      </c>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="3">
+        <v>30</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>30</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>30</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>30</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6">
+        <v>30</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3</v>
+      </c>
+      <c r="K39" s="5">
+        <v>30</v>
+      </c>
+      <c r="L39" s="4">
+        <v>75</v>
+      </c>
+      <c r="M39" s="6">
+        <v>30</v>
+      </c>
+      <c r="N39" s="3"/>
+      <c r="O39" s="5">
+        <v>30</v>
+      </c>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="6">
+        <v>30</v>
+      </c>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="3">
+        <v>31</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>31</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>31</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>31</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <v>31</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3</v>
+      </c>
+      <c r="K40" s="5">
+        <v>31</v>
+      </c>
+      <c r="L40" s="4">
+        <v>75</v>
+      </c>
+      <c r="M40" s="6">
+        <v>31</v>
+      </c>
+      <c r="N40" s="3"/>
+      <c r="O40" s="5">
+        <v>31</v>
+      </c>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="6">
+        <v>31</v>
+      </c>
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="3">
+        <v>32</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>32</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>32</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>32</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="6">
+        <v>32</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3</v>
+      </c>
+      <c r="K41" s="5">
+        <v>32</v>
+      </c>
+      <c r="L41" s="4">
+        <v>74</v>
+      </c>
+      <c r="M41" s="6">
+        <v>32</v>
+      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="5">
+        <v>32</v>
+      </c>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="6">
+        <v>32</v>
+      </c>
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="3">
+        <v>33</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>33</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>33</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>33</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>33</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3</v>
+      </c>
+      <c r="K42" s="5">
+        <v>33</v>
+      </c>
+      <c r="L42" s="4">
+        <v>75</v>
+      </c>
+      <c r="M42" s="6">
+        <v>33</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="5">
+        <v>33</v>
+      </c>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="6">
+        <v>33</v>
+      </c>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="3">
+        <v>34</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>34</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>34</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>34</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6">
+        <v>34</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3</v>
+      </c>
+      <c r="K43" s="5">
+        <v>34</v>
+      </c>
+      <c r="L43" s="4">
+        <v>75</v>
+      </c>
+      <c r="M43" s="6">
+        <v>34</v>
+      </c>
+      <c r="N43" s="3"/>
+      <c r="O43" s="5">
+        <v>34</v>
+      </c>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="6">
+        <v>34</v>
+      </c>
+      <c r="R43" s="2"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="3">
+        <v>35</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>35</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>35</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>35</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6">
+        <v>35</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3</v>
+      </c>
+      <c r="K44" s="5">
+        <v>35</v>
+      </c>
+      <c r="L44" s="4">
+        <v>76</v>
+      </c>
+      <c r="M44" s="6">
+        <v>35</v>
+      </c>
+      <c r="N44" s="3"/>
+      <c r="O44" s="5">
+        <v>35</v>
+      </c>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="6">
+        <v>35</v>
+      </c>
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="3">
+        <v>36</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>36</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>36</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>36</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>36</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2</v>
+      </c>
+      <c r="K45" s="5">
+        <v>36</v>
+      </c>
+      <c r="L45" s="4">
+        <v>73</v>
+      </c>
+      <c r="M45" s="6">
+        <v>36</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="5">
+        <v>36</v>
+      </c>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="6">
+        <v>36</v>
+      </c>
+      <c r="R45" s="2"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="3">
+        <v>37</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>37</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>37</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>37</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="6">
+        <v>37</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3</v>
+      </c>
+      <c r="K46" s="5">
+        <v>37</v>
+      </c>
+      <c r="L46" s="4">
+        <v>74</v>
+      </c>
+      <c r="M46" s="6">
+        <v>37</v>
+      </c>
+      <c r="N46" s="3"/>
+      <c r="O46" s="5">
+        <v>37</v>
+      </c>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="6">
+        <v>37</v>
+      </c>
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="3">
+        <v>38</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>38</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>38</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
+        <v>38</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>38</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2</v>
+      </c>
+      <c r="K47" s="5">
+        <v>38</v>
+      </c>
+      <c r="L47" s="4">
+        <v>74</v>
+      </c>
+      <c r="M47" s="6">
+        <v>38</v>
+      </c>
+      <c r="N47" s="3"/>
+      <c r="O47" s="5">
+        <v>38</v>
+      </c>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="6">
+        <v>38</v>
+      </c>
+      <c r="R47" s="2"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="3">
+        <v>39</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>39</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>39</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>39</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="6">
+        <v>39</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3</v>
+      </c>
+      <c r="K48" s="5">
+        <v>39</v>
+      </c>
+      <c r="L48" s="4">
+        <v>76</v>
+      </c>
+      <c r="M48" s="6">
+        <v>39</v>
+      </c>
+      <c r="N48" s="3"/>
+      <c r="O48" s="5">
+        <v>39</v>
+      </c>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="6">
+        <v>39</v>
+      </c>
+      <c r="R48" s="2"/>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="3">
+        <v>40</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>40</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>40</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>40</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="6">
+        <v>40</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3</v>
+      </c>
+      <c r="K49" s="5">
+        <v>40</v>
+      </c>
+      <c r="L49" s="4">
+        <v>75</v>
+      </c>
+      <c r="M49" s="6">
+        <v>40</v>
+      </c>
+      <c r="N49" s="3"/>
+      <c r="O49" s="5">
+        <v>40</v>
+      </c>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="6">
+        <v>40</v>
+      </c>
+      <c r="R49" s="2"/>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="3">
+        <v>41</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>41</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>41</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
+        <v>41</v>
+      </c>
+      <c r="H50" s="4">
+        <v>1</v>
+      </c>
+      <c r="I50" s="6">
+        <v>41</v>
+      </c>
+      <c r="J50" s="3">
+        <v>2</v>
+      </c>
+      <c r="K50" s="5">
+        <v>41</v>
+      </c>
+      <c r="L50" s="4">
+        <v>72</v>
+      </c>
+      <c r="M50" s="6">
+        <v>41</v>
+      </c>
+      <c r="N50" s="3"/>
+      <c r="O50" s="5">
+        <v>41</v>
+      </c>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="6">
+        <v>41</v>
+      </c>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="3">
+        <v>42</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>42</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>42</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
+        <v>42</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6">
+        <v>42</v>
+      </c>
+      <c r="J51" s="3">
+        <v>2</v>
+      </c>
+      <c r="K51" s="5">
+        <v>42</v>
+      </c>
+      <c r="L51" s="4">
+        <v>74</v>
+      </c>
+      <c r="M51" s="6">
+        <v>42</v>
+      </c>
+      <c r="N51" s="3"/>
+      <c r="O51" s="5">
+        <v>42</v>
+      </c>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="6">
+        <v>42</v>
+      </c>
+      <c r="R51" s="2"/>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="3">
+        <v>43</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>43</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>43</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
+        <v>43</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="6">
+        <v>43</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3</v>
+      </c>
+      <c r="K52" s="5">
+        <v>43</v>
+      </c>
+      <c r="L52" s="4">
+        <v>76</v>
+      </c>
+      <c r="M52" s="6">
+        <v>43</v>
+      </c>
+      <c r="N52" s="3"/>
+      <c r="O52" s="5">
+        <v>43</v>
+      </c>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="6">
+        <v>43</v>
+      </c>
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="3">
+        <v>44</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>44</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>44</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <v>44</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="6">
+        <v>44</v>
+      </c>
+      <c r="J53" s="3">
+        <v>2</v>
+      </c>
+      <c r="K53" s="5">
+        <v>44</v>
+      </c>
+      <c r="L53" s="4">
+        <v>75</v>
+      </c>
+      <c r="M53" s="6">
+        <v>44</v>
+      </c>
+      <c r="N53" s="3"/>
+      <c r="O53" s="5">
+        <v>44</v>
+      </c>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="6">
+        <v>44</v>
+      </c>
+      <c r="R53" s="2"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="3">
+        <v>45</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>45</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>45</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <v>45</v>
+      </c>
+      <c r="H54" s="4">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6">
+        <v>45</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3</v>
+      </c>
+      <c r="K54" s="5">
+        <v>45</v>
+      </c>
+      <c r="L54" s="4">
+        <v>74</v>
+      </c>
+      <c r="M54" s="6">
+        <v>45</v>
+      </c>
+      <c r="N54" s="3"/>
+      <c r="O54" s="5">
+        <v>45</v>
+      </c>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="6">
+        <v>45</v>
+      </c>
+      <c r="R54" s="2"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="3">
+        <v>46</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0</v>
+      </c>
+      <c r="C55" s="5">
+        <v>46</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>46</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <v>46</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6">
+        <v>46</v>
+      </c>
+      <c r="J55" s="3">
+        <v>2</v>
+      </c>
+      <c r="K55" s="5">
+        <v>46</v>
+      </c>
+      <c r="L55" s="4">
+        <v>74</v>
+      </c>
+      <c r="M55" s="6">
+        <v>46</v>
+      </c>
+      <c r="N55" s="3"/>
+      <c r="O55" s="5">
+        <v>46</v>
+      </c>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="6">
+        <v>46</v>
+      </c>
+      <c r="R55" s="2"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="3">
+        <v>47</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>47</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>47</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>47</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="6">
+        <v>47</v>
+      </c>
+      <c r="J56" s="3">
+        <v>3</v>
+      </c>
+      <c r="K56" s="5">
+        <v>47</v>
+      </c>
+      <c r="L56" s="4">
+        <v>76</v>
+      </c>
+      <c r="M56" s="6">
+        <v>47</v>
+      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="5">
+        <v>47</v>
+      </c>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="6">
+        <v>47</v>
+      </c>
+      <c r="R56" s="2"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="3">
+        <v>48</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>48</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>48</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>48</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="6">
+        <v>48</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3</v>
+      </c>
+      <c r="K57" s="5">
+        <v>48</v>
+      </c>
+      <c r="L57" s="4">
+        <v>76</v>
+      </c>
+      <c r="M57" s="6">
+        <v>48</v>
+      </c>
+      <c r="N57" s="3"/>
+      <c r="O57" s="5">
+        <v>48</v>
+      </c>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="6">
+        <v>48</v>
+      </c>
+      <c r="R57" s="2"/>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="3">
+        <v>49</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0</v>
+      </c>
+      <c r="C58" s="5">
+        <v>49</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>49</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>49</v>
+      </c>
+      <c r="H58" s="4">
+        <v>1</v>
+      </c>
+      <c r="I58" s="6">
+        <v>49</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2</v>
+      </c>
+      <c r="K58" s="5">
+        <v>49</v>
+      </c>
+      <c r="L58" s="4">
+        <v>75</v>
+      </c>
+      <c r="M58" s="6">
+        <v>49</v>
+      </c>
+      <c r="N58" s="3"/>
+      <c r="O58" s="5">
+        <v>49</v>
+      </c>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="6">
+        <v>49</v>
+      </c>
+      <c r="R58" s="2"/>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="3">
+        <v>50</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>50</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>50</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>50</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="6">
+        <v>50</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2</v>
+      </c>
+      <c r="K59" s="5">
+        <v>50</v>
+      </c>
+      <c r="L59" s="4">
+        <v>74</v>
+      </c>
+      <c r="M59" s="6">
+        <v>50</v>
+      </c>
+      <c r="N59" s="3"/>
+      <c r="O59" s="5">
+        <v>50</v>
+      </c>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="6">
+        <v>50</v>
+      </c>
+      <c r="R59" s="2"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="8">
+        <f>SUM(B10:B59)</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="8">
+        <f>SUM(D10:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="8">
+        <f>SUM(F10:F59)</f>
+        <v>6</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="8">
+        <f>SUM(H10:H59)</f>
+        <v>33</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" s="8">
+        <f>SUM(J10:J59)</f>
+        <v>128</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L61" s="8">
+        <f>SUM(L10:L59)</f>
+        <v>3732</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N61" s="8">
+        <f>SUM(N10:N59)</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="P61" s="8">
+        <f>SUM(P10:P59)</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R61" s="8">
+        <f>SUM(R10:R59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="C62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="8">
+        <f>D61/50</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="8">
+        <f>F61/50</f>
+        <v>0.12</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="8">
+        <f>H61/50</f>
+        <v>0.66</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="8">
+        <f>J61/50</f>
+        <v>2.56</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="8">
+        <f>L61/50</f>
+        <v>74.64</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="8">
+        <f>N61/50</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="8">
+        <f>P61/50</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="8">
+        <f>R61/50</f>
         <v>0</v>
       </c>
     </row>
@@ -3070,30 +6015,5 @@
     <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>